--- a/individual amortization tables/LoanTape 0.xlsx
+++ b/individual amortization tables/LoanTape 0.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>13-02-2024</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>13-04-2024</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12-05-2024</t>
+          <t>13-05-2024</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11-06-2024</t>
+          <t>13-06-2024</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11-07-2024</t>
+          <t>13-07-2024</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10-08-2024</t>
+          <t>13-08-2024</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09-09-2024</t>
+          <t>13-09-2024</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09-10-2024</t>
+          <t>13-10-2024</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>13-11-2024</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>13-12-2024</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07-01-2025</t>
+          <t>13-01-2025</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -940,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K362"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2115,7 +2115,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2126,16 +2126,16 @@
         <v>10000</v>
       </c>
       <c r="E32" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.02</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>9946.32</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9946.32</v>
+        <v>10000</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4346,16 +4346,16 @@
         <v>9892.639999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>41.22</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>12.46</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>41.22</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>9838.950000000001</v>
+        <v>9892.639999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4380,19 +4380,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9838.950000000001</v>
+        <v>9892.639999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>41.22</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>12.46</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>41.22</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -5456,16 +5456,16 @@
         <v>9838.950000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>12.69</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>9785.27</v>
+        <v>9838.950000000001</v>
       </c>
     </row>
     <row r="123">
@@ -5490,19 +5490,19 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>9785.27</v>
+        <v>9838.950000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>12.69</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -6566,16 +6566,16 @@
         <v>9785.27</v>
       </c>
       <c r="E152" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>40.77</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>12.91</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>40.77</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>9731.59</v>
+        <v>9785.27</v>
       </c>
     </row>
     <row r="153">
@@ -6592,7 +6592,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>9731.59</v>
+        <v>9785.27</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>9731.59</v>
+        <v>9785.27</v>
       </c>
     </row>
     <row r="154">
@@ -6637,19 +6637,19 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>9731.59</v>
+        <v>9785.27</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>40.77</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>12.91</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>40.77</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -7676,16 +7676,16 @@
         <v>9731.59</v>
       </c>
       <c r="E182" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>40.55</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>13.13</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>40.55</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>9677.91</v>
+        <v>9731.59</v>
       </c>
     </row>
     <row r="183">
@@ -7702,7 +7702,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>9677.91</v>
+        <v>9731.59</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>9677.91</v>
+        <v>9731.59</v>
       </c>
     </row>
     <row r="184">
@@ -7747,19 +7747,19 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>9677.91</v>
+        <v>9731.59</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>40.55</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>40.55</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -8786,16 +8786,16 @@
         <v>9677.91</v>
       </c>
       <c r="E212" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>40.32</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>13.36</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>40.32</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>9624.219999999999</v>
+        <v>9677.91</v>
       </c>
     </row>
     <row r="213">
@@ -8812,7 +8812,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>9624.219999999999</v>
+        <v>9677.91</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>9624.219999999999</v>
+        <v>9677.91</v>
       </c>
     </row>
     <row r="214">
@@ -8849,7 +8849,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>9624.219999999999</v>
+        <v>9677.91</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>9624.219999999999</v>
+        <v>9677.91</v>
       </c>
     </row>
     <row r="215">
@@ -8894,19 +8894,19 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>9624.219999999999</v>
+        <v>9677.91</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>40.32</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>13.36</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>40.32</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -9885,7 +9885,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -9896,16 +9896,16 @@
         <v>9624.219999999999</v>
       </c>
       <c r="E242" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>13.58</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
     </row>
     <row r="243">
@@ -9922,7 +9922,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
     </row>
     <row r="244">
@@ -9959,7 +9959,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -9988,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
     </row>
     <row r="245">
@@ -9996,7 +9996,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
     </row>
     <row r="246">
@@ -10041,19 +10041,19 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>9570.540000000001</v>
+        <v>9624.219999999999</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>40.1</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>13.58</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>40.1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -11006,16 +11006,16 @@
         <v>9570.540000000001</v>
       </c>
       <c r="E272" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>39.88</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>39.88</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
     </row>
     <row r="273">
@@ -11032,7 +11032,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
     </row>
     <row r="274">
@@ -11069,7 +11069,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="K274" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
     </row>
     <row r="275">
@@ -11106,7 +11106,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
     </row>
     <row r="276">
@@ -11151,19 +11151,19 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>9516.860000000001</v>
+        <v>9570.540000000001</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>39.88</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>39.88</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -12105,7 +12105,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -12116,16 +12116,16 @@
         <v>9516.860000000001</v>
       </c>
       <c r="E302" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>39.65</v>
+        <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>39.65</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -12134,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
     </row>
     <row r="303">
@@ -12142,7 +12142,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="K303" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
     </row>
     <row r="304">
@@ -12179,7 +12179,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
     </row>
     <row r="305">
@@ -12216,7 +12216,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="K305" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
     </row>
     <row r="306">
@@ -12253,7 +12253,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="K306" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
     </row>
     <row r="307">
@@ -12298,19 +12298,19 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>9463.18</v>
+        <v>9516.860000000001</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>39.65</v>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>39.65</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -13215,7 +13215,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -13226,16 +13226,16 @@
         <v>9463.18</v>
       </c>
       <c r="E332" t="n">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>39.43</v>
+        <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>39.43</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="K332" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
     </row>
     <row r="333">
@@ -13252,7 +13252,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="K333" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
     </row>
     <row r="334">
@@ -13289,7 +13289,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
       <c r="E334" t="n">
         <v>0</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="K334" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
     </row>
     <row r="335">
@@ -13326,7 +13326,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="K335" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
     </row>
     <row r="336">
@@ -13363,7 +13363,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
       <c r="E336" t="n">
         <v>0</v>
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="K336" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
     </row>
     <row r="337">
@@ -13408,19 +13408,19 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>9409.5</v>
+        <v>9463.18</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>53.68</v>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>39.43</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>39.43</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -14325,7 +14325,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -14336,24 +14336,246 @@
         <v>9409.5</v>
       </c>
       <c r="E362" t="n">
+        <v>0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>9409.5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>11</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>08-01-2025</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>9409.5</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>9409.5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>11</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>09-01-2025</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>9409.5</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>9409.5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>11</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>10-01-2025</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>9409.5</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>9409.5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>11</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>11-01-2025</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>9409.5</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>9409.5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>11</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>12-01-2025</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>9409.5</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>9409.5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>12</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>13-01-2025</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>9409.5</v>
+      </c>
+      <c r="E368" t="n">
         <v>53.68</v>
       </c>
-      <c r="F362" t="n">
+      <c r="F368" t="n">
         <v>39.21</v>
       </c>
-      <c r="G362" t="n">
+      <c r="G368" t="n">
         <v>14.48</v>
       </c>
-      <c r="H362" t="n">
+      <c r="H368" t="n">
         <v>39.21</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
-      <c r="J362" t="n">
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="n">
         <v>9355.809999999999</v>
       </c>
-      <c r="K362" t="n">
+      <c r="K368" t="n">
         <v>0</v>
       </c>
     </row>
